--- a/StaticData/BattleScene.xlsx
+++ b/StaticData/BattleScene.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BattleScene" sheetId="4" r:id="rId1"/>
     <sheet name="BattleStage" sheetId="5" r:id="rId2"/>
-    <sheet name="Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="EGridType" sheetId="2" r:id="rId4"/>
+    <sheet name="Terrain" sheetId="3" r:id="rId3"/>
+    <sheet name="ETerrainType" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,18 +84,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EGridType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,6 +133,26 @@
   </si>
   <si>
     <t>1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETerrainType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -494,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -505,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -516,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -555,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -583,16 +595,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -603,16 +615,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -623,16 +635,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -667,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -678,72 +690,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -752,7 +780,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:O15"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/StaticData/BattleScene.xlsx
+++ b/StaticData/BattleScene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BattleScene" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,22 @@
   </si>
   <si>
     <t>Int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;StageActor{Uid:Int32,Rid:Int32,Level:Int32,PosX:Int32,PosY:Int32}&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,1,4,5,3 | 102,1,4,5,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +497,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,9 +593,10 @@
     <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -606,8 +623,11 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -626,8 +646,11 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -646,23 +669,26 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -680,11 +706,15 @@
       </c>
       <c r="F8" t="s">
         <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -692,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/StaticData/BattleScene.xlsx
+++ b/StaticData/BattleScene.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Terrain" sheetId="3" r:id="rId3"/>
     <sheet name="ETerrainType" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>101,1,4,5,3 | 102,1,4,5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedPrepare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,7 +604,7 @@
     <col min="7" max="7" width="61.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -626,8 +634,11 @@
       <c r="G2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -649,8 +660,11 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -673,22 +687,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>

--- a/StaticData/BattleScene.xlsx
+++ b/StaticData/BattleScene.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BattleScene" sheetId="4" r:id="rId1"/>
     <sheet name="BattleStage" sheetId="5" r:id="rId2"/>
-    <sheet name="Terrain" sheetId="3" r:id="rId3"/>
-    <sheet name="ETerrainType" sheetId="2" r:id="rId4"/>
+    <sheet name="EBattleStageType" sheetId="7" r:id="rId3"/>
+    <sheet name="Ground" sheetId="6" r:id="rId4"/>
+    <sheet name="Terrain" sheetId="3" r:id="rId5"/>
+    <sheet name="ETerrainType" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BattleScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +176,45 @@
   <si>
     <t>NeedPrepare</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScenePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBattleStageType</t>
   </si>
 </sst>
 </file>
@@ -505,7 +542,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -530,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -541,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -584,35 +621,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.375" customWidth="1"/>
+    <col min="3" max="3" width="61.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -620,25 +654,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -646,25 +671,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -672,57 +688,42 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
+      <c r="C8" t="s">
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -734,10 +735,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="76.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -783,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -819,12 +998,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/StaticData/BattleScene.xlsx
+++ b/StaticData/BattleScene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="BattleScene" sheetId="4" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,55 +162,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedPrepare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScenePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBattleStageType</t>
+  </si>
+  <si>
     <t>101,1,4,5,3 | 102,1,4,5,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedPrepare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScenePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroundId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scenario</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBattleStageType</t>
+    <t>测试场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -630,7 +630,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -654,13 +654,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,13 +671,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -688,13 +688,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,18 +748,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -818,19 +818,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -838,19 +838,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -858,19 +858,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1000</v>
@@ -1013,18 +1013,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StaticData/BattleScene.xlsx
+++ b/StaticData/BattleScene.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BattleScene" sheetId="4" r:id="rId1"/>
+    <sheet name="Battle" sheetId="4" r:id="rId1"/>
     <sheet name="BattleStage" sheetId="5" r:id="rId2"/>
-    <sheet name="EBattleStageType" sheetId="7" r:id="rId3"/>
-    <sheet name="Ground" sheetId="6" r:id="rId4"/>
-    <sheet name="Terrain" sheetId="3" r:id="rId5"/>
-    <sheet name="ETerrainType" sheetId="2" r:id="rId6"/>
+    <sheet name="Team" sheetId="8" r:id="rId3"/>
+    <sheet name="EBattleStageType" sheetId="7" r:id="rId4"/>
+    <sheet name="Ground" sheetId="6" r:id="rId5"/>
+    <sheet name="Terrain" sheetId="3" r:id="rId6"/>
+    <sheet name="ETerrainType" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,98 +123,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETerrainType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedPrepare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScenePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBattleStageType</t>
+  </si>
+  <si>
+    <t>101,1,4,5,3 | 102,1,4,5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,1,4,8,2 | 102,1,4,9,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmbattleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Embattle{TeamId:Int32,PosX:Int32,PosY:Int32}&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageEntityList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;StageEntity{Uid:Int32,Rid:Int32,Level:Int32,PosX:Int32,PosY:Int32}&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BattleStage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETerrainType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntityList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;StageActor{Uid:Int32,Rid:Int32,Level:Int32,PosX:Int32,PosY:Int32}&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedPrepare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScenePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroundId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scenario</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBattleStageType</t>
-  </si>
-  <si>
-    <t>101,1,4,5,3 | 102,1,4,5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试场景</t>
+    <t>1,1,1|1,1,3|1,0,4|1,0,2|1,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,8 +298,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,83 +581,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -627,102 +682,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="61.375" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="4" width="61.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -734,6 +821,121 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -751,7 +953,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -783,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -810,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -838,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -858,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -902,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -911,12 +1113,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -962,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -998,7 +1200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1016,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/StaticData/BattleScene.xlsx
+++ b/StaticData/BattleScene.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,14 @@
   </si>
   <si>
     <t>1,1,1|1,1,3|1,0,4|1,0,2|1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScenePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +704,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,8 +731,11 @@
       <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,8 +754,11 @@
       <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -763,23 +777,26 @@
       <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -796,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -825,7 +842,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/StaticData/BattleScene.xlsx
+++ b/StaticData/BattleScene.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,9 @@
   <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene/101/101.unity</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,7 +696,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,6 +815,9 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -828,6 +834,9 @@
       </c>
       <c r="F9" s="1">
         <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
